--- a/Phenoloxidase Activity data/Data for 150 samples/17. Phenoloxidase 16-08-24 (SEG 25 - 33).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/17. Phenoloxidase 16-08-24 (SEG 25 - 33).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -815,6 +815,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248022192"/>
-        <c:axId val="248019448"/>
+        <c:axId val="286929456"/>
+        <c:axId val="286932592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248022192"/>
+        <c:axId val="286929456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,12 +1081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248019448"/>
+        <c:crossAx val="286932592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248019448"/>
+        <c:axId val="286932592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248022192"/>
+        <c:crossAx val="286929456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1192,6 +1193,1907 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$B$15:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.879999928176403E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33789999783039093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64150002598762512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93925002217292786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2271000146865845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4774500131607056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291468672"/>
+        <c:axId val="291469064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291468672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291469064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291469064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291468672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$N$23:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$O$23:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.3400000333786011E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.573333342870076E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5366665522257492E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5233334898948669E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5033333996931716E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.483333557844162E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5100001792112991E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5566663940747574E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.590000043312709E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6433332860469818E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7233333985010788E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="291469848"/>
+        <c:axId val="292043840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="291469848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292043840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291469848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$A$28:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$B$28:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.3900001347064972E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4900003373622894E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.419999897480011E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000003039836884E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4000003039836884E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3900001347064972E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3900001347064972E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4099997282028198E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4400002360343933E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4900003373622894E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.549999862909317E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292043056"/>
+        <c:axId val="292041096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292043056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292041096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292041096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292043056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$F$28:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$G$28:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.4300000667572021E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5600000321865082E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5099999308586121E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4900003373622894E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4699999988079071E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4400002360343933E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4900003373622894E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5399996936321259E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5700002014636993E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6299997270107269E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7100003361701965E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292042664"/>
+        <c:axId val="292038744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292042664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292038744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292038744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292042664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17797375328083984"/>
+                  <c:y val="-2.8953776611256928E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$J$28:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$K$28:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.1999998986721039E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6699996590614319E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.679999828338623E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.679999828338623E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6399998962879181E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6200003027915955E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6500000655651093E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.719999760389328E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.759999692440033E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8099997937679291E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9099999964237213E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292041488"/>
+        <c:axId val="292040312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292041488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292040312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="292040312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292041488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1314,54 +3216,84 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Slope for standard and NC'!$A$15:$A$20</c:f>
+              <c:f>'Slope(Sample - Blank)'!$N$18:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Slope for standard and NC'!$B$15:$B$20</c:f>
+              <c:f>'Slope(Sample - Blank)'!$O$18:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.879999928176403E-2</c:v>
+                  <c:v>4.0266682704289791E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33789999783039093</c:v>
+                  <c:v>5.9933334589004517E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64150002598762512</c:v>
+                  <c:v>7.5483342011769539E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93925002217292786</c:v>
+                  <c:v>8.7933341662088993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2271000146865845</c:v>
+                  <c:v>9.9616676568984985E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4774500131607056</c:v>
+                  <c:v>0.10811666647593177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11596666773160302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12283333142598463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128766675790151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1378500064214071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,11 +3308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292275320"/>
-        <c:axId val="292274536"/>
+        <c:axId val="286933376"/>
+        <c:axId val="286929064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292275320"/>
+        <c:axId val="286933376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +3369,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292274536"/>
+        <c:crossAx val="286929064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292274536"/>
+        <c:axId val="286929064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,1945 +3431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292275320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$N$23:$N$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$O$23:$O$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.3400000333786011E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.573333342870076E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5366665522257492E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5233334898948669E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5033333996931716E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.483333557844162E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.5100001792112991E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5566663940747574E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.590000043312709E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6433332860469818E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.7233333985010788E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="292281200"/>
-        <c:axId val="292274928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="292281200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="292274928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="292274928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="292281200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$A$28:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$B$28:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.3900001347064972E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4900003373622894E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.419999897480011E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4000003039836884E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4000003039836884E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3900001347064972E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3900001347064972E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4099997282028198E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4400002360343933E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4900003373622894E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.549999862909317E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="294742312"/>
-        <c:axId val="379527920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="294742312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="379527920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="379527920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="294742312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$F$28:$F$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$G$28:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.4300000667572021E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5600000321865082E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5099999308586121E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4900003373622894E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4699999988079071E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4400002360343933E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4900003373622894E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5399996936321259E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5700002014636993E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6299997270107269E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.7100003361701965E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="394529192"/>
-        <c:axId val="394528408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="394529192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="394528408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="394528408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="394529192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17797375328083984"/>
-                  <c:y val="-2.8953776611256928E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$J$28:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope for standard and NC'!$K$28:$K$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.1999998986721039E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6699996590614319E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.679999828338623E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.679999828338623E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6399998962879181E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6200003027915955E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6500000655651093E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.719999760389328E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.759999692440033E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8099997937679291E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9099999964237213E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="386290960"/>
-        <c:axId val="386290568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="386290960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="386290568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="386290568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="386290960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$N$18:$N$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$O$18:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.0266682704289791E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9933334589004517E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5483342011769539E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.7933341662088993E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9616676568984985E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10811666647593177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11596666773160302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12283333142598463</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.128766675790151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1378500064214071</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14499998092651367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="248017488"/>
-        <c:axId val="248022584"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="248017488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248022584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="248022584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248017488"/>
+        <c:crossAx val="286933376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3699,11 +3693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248021016"/>
-        <c:axId val="248021408"/>
+        <c:axId val="286931024"/>
+        <c:axId val="286931808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248021016"/>
+        <c:axId val="286931024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,12 +3754,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248021408"/>
+        <c:crossAx val="286931808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248021408"/>
+        <c:axId val="286931808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248021016"/>
+        <c:crossAx val="286931024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4090,11 +4084,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248015136"/>
-        <c:axId val="248015528"/>
+        <c:axId val="286928280"/>
+        <c:axId val="286930240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248015136"/>
+        <c:axId val="286928280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,12 +4145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248015528"/>
+        <c:crossAx val="286930240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248015528"/>
+        <c:axId val="286930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248015136"/>
+        <c:crossAx val="286928280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4277,6 +4271,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4481,11 +4476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292276104"/>
-        <c:axId val="292278064"/>
+        <c:axId val="291464752"/>
+        <c:axId val="291466320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292276104"/>
+        <c:axId val="291464752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4542,12 +4537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292278064"/>
+        <c:crossAx val="291466320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292278064"/>
+        <c:axId val="291466320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4604,7 +4599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292276104"/>
+        <c:crossAx val="291464752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4668,6 +4663,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4742,6 +4738,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4880,11 +4877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292280416"/>
-        <c:axId val="292278456"/>
+        <c:axId val="291463576"/>
+        <c:axId val="291467888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292280416"/>
+        <c:axId val="291463576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4941,12 +4938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292278456"/>
+        <c:crossAx val="291467888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292278456"/>
+        <c:axId val="291467888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,7 +5000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292280416"/>
+        <c:crossAx val="291463576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5067,6 +5064,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5285,11 +5283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292277280"/>
-        <c:axId val="292278848"/>
+        <c:axId val="291463968"/>
+        <c:axId val="291465144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292277280"/>
+        <c:axId val="291463968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5346,12 +5344,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292278848"/>
+        <c:crossAx val="291465144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292278848"/>
+        <c:axId val="291465144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5408,7 +5406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292277280"/>
+        <c:crossAx val="291463968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5472,6 +5470,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5676,11 +5675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292279632"/>
-        <c:axId val="292275712"/>
+        <c:axId val="291465928"/>
+        <c:axId val="291466712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292279632"/>
+        <c:axId val="291465928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5737,12 +5736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292275712"/>
+        <c:crossAx val="291466712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292275712"/>
+        <c:axId val="291466712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,7 +5798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292279632"/>
+        <c:crossAx val="291465928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5863,6 +5862,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6067,11 +6067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292276496"/>
-        <c:axId val="292276888"/>
+        <c:axId val="291470632"/>
+        <c:axId val="291467496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292276496"/>
+        <c:axId val="291470632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,12 +6128,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292276888"/>
+        <c:crossAx val="291467496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292276888"/>
+        <c:axId val="291467496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6190,7 +6190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292276496"/>
+        <c:crossAx val="291470632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14718,8 +14718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="O124" sqref="O124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18737,8 +18737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="G118" workbookViewId="0">
-      <selection activeCell="W133" sqref="W133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23950,7 +23950,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
